--- a/src/main/resources/testdata/CreateLocation.xlsx
+++ b/src/main/resources/testdata/CreateLocation.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20115" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="CreateLocation" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
   <si>
     <t>LocationName</t>
   </si>
@@ -511,10 +511,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -555,6 +555,17 @@
       </c>
       <c r="C3" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -610,7 +621,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
